--- a/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
+++ b/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 SASC\Startup Platform\Vettoo\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 SASC\Startup Platform\Vettoo\VettooApp\Vettoo-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B260ECB6-934E-4A52-93A3-E914644B55F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6E2B66-5928-42EC-AD1C-1B73B426C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_rse" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Qual_Commenced" sheetId="6" r:id="rId6"/>
     <sheet name="Qual_In-training" sheetId="7" r:id="rId7"/>
     <sheet name="Qual_Completed" sheetId="8" r:id="rId8"/>
+    <sheet name="SA" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="493">
   <si>
     <t>© Commonwealth of Australia, 2025</t>
   </si>
@@ -1507,13 +1508,25 @@
   </si>
   <si>
     <t>Certificate IV in Aboriginal and/or Torres Strait Islander Primary Health Care</t>
+  </si>
+  <si>
+    <t>Commencements</t>
+  </si>
+  <si>
+    <t>In-training</t>
+  </si>
+  <si>
+    <t>Completions</t>
+  </si>
+  <si>
+    <t>Training Contract Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1538,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1562,11 +1583,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,6 +1917,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1899,7 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1959,6 +1989,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1969,6 +2002,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3506,6 +3542,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5053,6 +5092,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6600,6 +6642,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6607,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18203,6 +18248,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -30081,6 +30129,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -30088,7 +30139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -40419,5 +40472,115 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial"&amp;12&amp;KA80000 OFFICIAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B7E639-B421-4F01-9459-82E4E1C686AD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11215</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15195</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16350</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9505</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20670</v>
+      </c>
+      <c r="C3" s="5">
+        <v>24945</v>
+      </c>
+      <c r="D3" s="5">
+        <v>28110</v>
+      </c>
+      <c r="E3" s="5">
+        <v>24210</v>
+      </c>
+      <c r="F3" s="5">
+        <v>22470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4265</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5915</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6275</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7115</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{77274858-3b1d-4431-8679-d878f40e28fd}" enabled="1" method="Privileged" siteId="{bda528f7-fca9-432f-bc98-bd7e90d40906}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
+++ b/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 SASC\Startup Platform\Vettoo\VettooApp\Vettoo-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6E2B66-5928-42EC-AD1C-1B73B426C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26094D25-8867-400F-8DB0-6924C7A86258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1583,15 +1583,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40483,7 +40483,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40519,59 +40519,68 @@
         <v>489</v>
       </c>
       <c r="B2" s="3">
-        <v>11215</v>
+        <v>9057</v>
       </c>
       <c r="C2" s="3">
+        <v>11216</v>
+      </c>
+      <c r="D2" s="3">
         <v>15195</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>16350</v>
       </c>
-      <c r="E2" s="3">
-        <v>9505</v>
-      </c>
       <c r="F2" s="3">
-        <v>9070</v>
+        <v>9503</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9072.390305500001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="5">
-        <v>20670</v>
-      </c>
-      <c r="C3" s="5">
-        <v>24945</v>
-      </c>
-      <c r="D3" s="5">
-        <v>28110</v>
-      </c>
-      <c r="E3" s="5">
-        <v>24210</v>
-      </c>
-      <c r="F3" s="5">
-        <v>22470</v>
+      <c r="B3" s="3">
+        <v>16354</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17711</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22635</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28962</v>
+      </c>
+      <c r="F3" s="3">
+        <v>28162</v>
+      </c>
+      <c r="G3" s="3">
+        <v>24413.000000100001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B4" s="4">
-        <v>4265</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5915</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6275</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7115</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5905</v>
+      <c r="B4" s="3">
+        <v>4701</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4263</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5914</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6277</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7116</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5904.5514684999998</v>
       </c>
     </row>
   </sheetData>

--- a/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
+++ b/Data/20250714_20250713_TP_Qualifications_Merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 SASC\Startup Platform\Vettoo\VettooApp\Vettoo-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26094D25-8867-400F-8DB0-6924C7A86258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2DC2C-5651-41FE-A5E5-B6CA5B1686F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33810" yWindow="4380" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_rse" sheetId="1" r:id="rId1"/>
@@ -40482,8 +40482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B7E639-B421-4F01-9459-82E4E1C686AD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40542,22 +40542,22 @@
         <v>490</v>
       </c>
       <c r="B3" s="3">
-        <v>16354</v>
+        <v>16831</v>
       </c>
       <c r="C3" s="3">
-        <v>17711</v>
+        <v>20669</v>
       </c>
       <c r="D3" s="3">
-        <v>22635</v>
+        <v>24943</v>
       </c>
       <c r="E3" s="3">
-        <v>28962</v>
+        <v>28112</v>
       </c>
       <c r="F3" s="3">
-        <v>28162</v>
+        <v>24211.9999991</v>
       </c>
       <c r="G3" s="3">
-        <v>24413.000000100001</v>
+        <v>22471.000000799999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
